--- a/book_rental/management/commands/uploads/sale_price.xlsx
+++ b/book_rental/management/commands/uploads/sale_price.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Product Code</t>
   </si>
@@ -46,7 +46,7 @@
     <t>B-000001</t>
   </si>
   <si>
-    <t>CO</t>
+    <t>COL</t>
   </si>
   <si>
     <t>BDT</t>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>ORI</t>
-  </si>
-  <si>
-    <t>20/12/2017 0:00:00</t>
   </si>
   <si>
     <t>B-000003</t>
@@ -114,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d-yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -250,10 +247,10 @@
         <v>20.0</v>
       </c>
       <c r="H3" s="2">
-        <v>43020.0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>42959.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42959.0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -261,13 +258,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>500.0</v>
@@ -284,13 +281,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>500.0</v>
@@ -307,7 +304,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -330,7 +327,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
@@ -353,7 +350,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1.0</v>
@@ -376,7 +373,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -399,7 +396,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>1.0</v>
@@ -422,7 +419,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -445,7 +442,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -468,7 +465,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -491,7 +488,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -514,7 +511,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -537,7 +534,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>1.0</v>
@@ -560,7 +557,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -583,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>1.0</v>
